--- a/BOM rules.xlsx
+++ b/BOM rules.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meksu02\Documents\MDM-Rules-6thJan\Rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malsa15\Documents\GitHub\Drools-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>RuleSet</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Master Material Data Foundation</t>
+  </si>
+  <si>
+    <t>hello world welcomw</t>
   </si>
 </sst>
 </file>
@@ -660,21 +663,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E19"/>
+  <dimension ref="A3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -684,7 +687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
@@ -694,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
@@ -704,7 +707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="93" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
@@ -713,8 +716,11 @@
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
@@ -724,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -734,7 +740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -744,7 +750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="12" t="s">
         <v>13</v>
@@ -755,7 +761,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="15" t="s">
         <v>14</v>
@@ -767,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
         <v>16</v>
@@ -775,7 +781,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="20" t="s">
         <v>17</v>
@@ -787,7 +793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="22" t="s">
         <v>19</v>
@@ -799,7 +805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25" t="s">
@@ -807,7 +813,7 @@
       </c>
       <c r="E16" s="26"/>
     </row>
-    <row r="17" spans="2:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>23</v>
       </c>
@@ -819,7 +825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
         <v>26</v>
@@ -829,7 +835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -842,15 +848,39 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation>https://one.ca.com/gisprojects/appservices/ads/salespad2/_cts/Document/Recon template.xsn</xsnLocation>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope>https://one.ca.com/gisprojects/appservices/ads/salespad2</xsnScope>
-</customXsn>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Record_x0020_Type xmlns="2c4a284f-f0aa-4ca1-a676-a1e189a234c9">Secondary</Record_x0020_Type>
+    <Project_x0020_Management xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xsi:nil="true"/>
+    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Archive xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">No</Archive>
+    <Project_x0020_Phase xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Build</Project_x0020_Phase>
+    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <URL xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </URL>
+    <ADM_x0020_Deliverable xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xsi:nil="true"/>
+    <Audience xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Clarity_x0020_ID xmlns="1f260bc1-164a-416b-b660-b27fd9572bea">PR04643</Clarity_x0020_ID>
+    <RecordType_CA xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Secondary</RecordType_CA>
+    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Program_x0020_Workstream xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Build Management</Program_x0020_Workstream>
+    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A67C27607357E44894D4B00A116CFA5" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c11bf8b631a577a5326000acbc0d38ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2c4a284f-f0aa-4ca1-a676-a1e189a234c9" xmlns:ns3="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xmlns:ns4="1f260bc1-164a-416b-b660-b27fd9572bea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f33cd9d697f33474a4e6f619d7e6e65" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1087,38 +1117,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Record_x0020_Type xmlns="2c4a284f-f0aa-4ca1-a676-a1e189a234c9">Secondary</Record_x0020_Type>
-    <Project_x0020_Management xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xsi:nil="true"/>
-    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Archive xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">No</Archive>
-    <Project_x0020_Phase xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Build</Project_x0020_Phase>
-    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <URL xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </URL>
-    <ADM_x0020_Deliverable xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xsi:nil="true"/>
-    <Audience xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Clarity_x0020_ID xmlns="1f260bc1-164a-416b-b660-b27fd9572bea">PR04643</Clarity_x0020_ID>
-    <RecordType_CA xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Secondary</RecordType_CA>
-    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Program_x0020_Workstream xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Build Management</Program_x0020_Workstream>
-    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation>https://one.ca.com/gisprojects/appservices/ads/salespad2/_cts/Document/Recon template.xsn</xsnLocation>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope>https://one.ca.com/gisprojects/appservices/ads/salespad2</xsnScope>
+</customXsn>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,14 +1133,32 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2A0C75D-5EC5-4987-A521-444DBEF44EF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDB0D91-E550-4772-AC64-EE6045EA0B21}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B29943FC-BFB2-4D5F-A156-0CCF4EFD9A32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1f260bc1-164a-416b-b660-b27fd9572bea"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8cf99456-6ffe-44ee-9a39-f512944ceb4d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2c4a284f-f0aa-4ca1-a676-a1e189a234c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846D11DC-35A6-41A2-9399-F2328B7FDC49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1154,28 +1178,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B29943FC-BFB2-4D5F-A156-0CCF4EFD9A32}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2A0C75D-5EC5-4987-A521-444DBEF44EF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1f260bc1-164a-416b-b660-b27fd9572bea"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8cf99456-6ffe-44ee-9a39-f512944ceb4d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2c4a284f-f0aa-4ca1-a676-a1e189a234c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDB0D91-E550-4772-AC64-EE6045EA0B21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/BOM rules.xlsx
+++ b/BOM rules.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>RuleSet</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>hello world welcomw</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> csn,cmvsvklvdsv;s</t>
+  </si>
+  <si>
+    <t>hfjkfj</t>
+  </si>
+  <si>
+    <t>gehfeqhfjkeqlkf;la</t>
   </si>
 </sst>
 </file>
@@ -663,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F19"/>
+  <dimension ref="A3:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +686,7 @@
     <col min="5" max="5" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -687,7 +696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
@@ -697,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
@@ -707,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="93" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="93" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
@@ -719,8 +728,11 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
@@ -730,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
@@ -740,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
@@ -749,8 +761,11 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="12" t="s">
         <v>13</v>
@@ -761,7 +776,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="15" t="s">
         <v>14</v>
@@ -772,8 +787,14 @@
       <c r="E12" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="18" t="s">
         <v>16</v>
@@ -781,7 +802,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="20" t="s">
         <v>17</v>
@@ -793,7 +814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="22" t="s">
         <v>19</v>
@@ -805,7 +826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25" t="s">
@@ -847,40 +868,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Record_x0020_Type xmlns="2c4a284f-f0aa-4ca1-a676-a1e189a234c9">Secondary</Record_x0020_Type>
-    <Project_x0020_Management xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xsi:nil="true"/>
-    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Archive xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">No</Archive>
-    <Project_x0020_Phase xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Build</Project_x0020_Phase>
-    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <URL xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </URL>
-    <ADM_x0020_Deliverable xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xsi:nil="true"/>
-    <Audience xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Clarity_x0020_ID xmlns="1f260bc1-164a-416b-b660-b27fd9572bea">PR04643</Clarity_x0020_ID>
-    <RecordType_CA xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Secondary</RecordType_CA>
-    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Program_x0020_Workstream xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Build Management</Program_x0020_Workstream>
-    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007A67C27607357E44894D4B00A116CFA5" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c11bf8b631a577a5326000acbc0d38ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2c4a284f-f0aa-4ca1-a676-a1e189a234c9" xmlns:ns3="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xmlns:ns4="1f260bc1-164a-416b-b660-b27fd9572bea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f33cd9d697f33474a4e6f619d7e6e65" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1117,7 +1104,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Record_x0020_Type xmlns="2c4a284f-f0aa-4ca1-a676-a1e189a234c9">Secondary</Record_x0020_Type>
+    <Project_x0020_Management xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xsi:nil="true"/>
+    <EmailTo xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Archive xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">No</Archive>
+    <Project_x0020_Phase xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Build</Project_x0020_Phase>
+    <EmailSender xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <EmailFrom xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <URL xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </URL>
+    <ADM_x0020_Deliverable xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d" xsi:nil="true"/>
+    <Audience xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Clarity_x0020_ID xmlns="1f260bc1-164a-416b-b660-b27fd9572bea">PR04643</Clarity_x0020_ID>
+    <RecordType_CA xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Secondary</RecordType_CA>
+    <EmailSubject xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Program_x0020_Workstream xmlns="8cf99456-6ffe-44ee-9a39-f512944ceb4d">Build Management</Program_x0020_Workstream>
+    <EmailCc xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<DocAve xmlns="http://www.AvePoint.com/sharepoint2007/v5/contenttype/list" CTID="0x01010035A570E238EADA4EA22C541EBD208557"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
   <xsnLocation>https://one.ca.com/gisprojects/appservices/ads/salespad2/_cts/Document/Recon template.xsn</xsnLocation>
@@ -1127,38 +1153,7 @@
 </customXsn>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<DocAve xmlns="http://www.AvePoint.com/sharepoint2007/v5/contenttype/list" CTID="0x01010035A570E238EADA4EA22C541EBD208557"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDB0D91-E550-4772-AC64-EE6045EA0B21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B29943FC-BFB2-4D5F-A156-0CCF4EFD9A32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1f260bc1-164a-416b-b660-b27fd9572bea"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8cf99456-6ffe-44ee-9a39-f512944ceb4d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2c4a284f-f0aa-4ca1-a676-a1e189a234c9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{846D11DC-35A6-41A2-9399-F2328B7FDC49}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1178,18 +1173,44 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B29943FC-BFB2-4D5F-A156-0CCF4EFD9A32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1f260bc1-164a-416b-b660-b27fd9572bea"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8cf99456-6ffe-44ee-9a39-f512944ceb4d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2c4a284f-f0aa-4ca1-a676-a1e189a234c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDB0D91-E550-4772-AC64-EE6045EA0B21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3584D20-7404-4CFB-9AFD-B30B5C139FB5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.AvePoint.com/sharepoint2007/v5/contenttype/list"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2A0C75D-5EC5-4987-A521-444DBEF44EF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3584D20-7404-4CFB-9AFD-B30B5C139FB5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.AvePoint.com/sharepoint2007/v5/contenttype/list"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>